--- a/aimms_model/energy_hub/results/Generic_energy_hub_experiment_with_sizing/results_capacities.xlsx
+++ b/aimms_model/energy_hub/results/Generic_energy_hub_experiment_with_sizing/results_capacities.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="20115" windowHeight="10035" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="13395" windowHeight="15135" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Installation" sheetId="1" r:id="rId1"/>
@@ -49,11 +49,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -80,7 +79,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -93,9 +92,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -133,7 +132,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -205,7 +204,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -383,7 +382,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -434,7 +433,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -444,7 +443,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -459,7 +458,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1339.6422729602732</v>
+        <v>2210.3851956592839</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -483,11 +482,11 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>4891.4891678150534</v>
+        <v>4827.1955598294808</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -497,7 +496,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -516,7 +515,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -526,7 +525,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -545,6 +544,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>